--- a/reverseprimer-v3_38.xlsx
+++ b/reverseprimer-v3_38.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_38" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3553-ACACACAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3553-CTTCCTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCCTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3554-GTTGCTTGGA</t>
+    <t>R3554-TGTCTACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTACACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>R3555-AAGCTGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>R3556-AACAAGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAAGGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>R3557-GTACAGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAGTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>R3558-TTCGTAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>R3559-CGAACTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAACTAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>R3560-TCACGTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGTGGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R3561-ACTCAGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAGGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R3562-AGTTCCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCCACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R3563-TTGTCAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCAAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R3564-CACTTGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTTGATGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R3565-GATCTAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTAGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R3566-AGATGGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGGACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R3567-AAGACCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACCTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R3568-CATGCTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCTACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R3569-ACAGGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGACGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R3570-CAACTGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R3571-AGTGTCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R3572-AACTCAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCAGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R3573-ACCATCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATCACATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R3574-ATCCTGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R3575-TGTTGGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R3576-TCTACGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACGTCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R3577-GTACAGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAGTCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R3578-GTTCCAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCAAGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R3579-TGCTCTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R3580-ACGTCATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCATCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R3581-GTACCTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCTGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R3582-CGTAGGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTAGGTTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R3583-AAGGACAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGACAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R3584-CAGTCGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCGTTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R3585-CACTGATCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGATCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R3586-ACACTGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGAACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R3587-TGACACAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACACAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R3588-CGTCGATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCGATCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R3589-ACTACGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R3590-TTCGACAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGACAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R3591-ACTCATGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCATGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R3592-ACTGAGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAGCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R3593-AACAACAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R3594-GACTTGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R3595-TGTTGCTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGCTCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R3596-GTGACAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACAGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R3597-TACTCCTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCCTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R3598-AGGAGTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAGTCGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R3599-ACCAACAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAACAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R3600-ACTAGGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R3601-CTACTACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTACAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R3602-AAGCTACGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R3603-AGTGTAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTAGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R3604-AGTACTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACTCCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R3605-TTCATCACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCATCACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R3606-TCTGTCCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R3607-TGCTCCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCCTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R3608-TCACTGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTGTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R3609-TTCGTAGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R3610-TACAAGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAAGGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R3611-TGAGTTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTTCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R3612-ACGACTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGACTGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R3613-TTCCTCACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R3614-AGTCGAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGAACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R3615-GGTTCTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTCTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R3616-ACGTACTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTACTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R3617-CACAGTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAGTGCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R3618-AGATCTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCTTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R3619-ACCTTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTCGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R3620-TCCATCCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATCCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R3621-ACCTAGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R3622-ACTGTCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTCAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R3623-AACCAGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAGTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R3624-CTTCATCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCATCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R3625-TAGGACTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGACTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R3626-GATGGAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGAAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R3627-TTGTCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R3628-TCAGCTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGCTAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R3629-GGAACCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R3630-AGTGCTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R3631-AGTGATGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGATGGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R3632-AGCAGACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGACTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R3633-GAGAGTTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R3634-TCAACTCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTCTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R3635-TGTCACTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCACTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R3636-TAGCTAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R3637-CATCTGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTGTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R3638-GAACTTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTTCACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R3639-AACACGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACGACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R3640-GTTGCTTGGA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGTTGCTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>R3555-AGAGGAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>R3556-TCTCTCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>R3557-GGAAGGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>R3558-GAACGTACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGTACGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>R3559-GAGGTTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>R3560-CAACACAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACACAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R3561-TTCCTTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R3562-TGAAGCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGCATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R3563-TTGACTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACTTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R3564-AGGAAGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R3565-TCGTTGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTTGGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R3566-ATCAGGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGGACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R3567-GTCTCCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCCTGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R3568-AGTGAGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R3569-ACATCACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCACTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R3570-CGATCGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCGAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R3571-TCTCAGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R3572-ACACAACTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAACTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R3573-GAGAAGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R3574-GAGTGACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGACTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R3575-ACACTGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R3576-ACAACGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACGTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R3577-TCCTACAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTACAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R3578-CACAAGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAAGCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R3579-GTCACTTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACTTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R3580-GGACTACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTACGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R3581-ACTAGTCCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGTCCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R3582-ACTCTAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R3583-CAACTGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTGATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R3584-GGTACTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACTAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R3585-GTGTTCCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R3586-TCACCATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCATCCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R3587-TTCTCTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCTTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R3588-GTCTCTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCTCGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R3589-TTGCAGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCAGCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R3590-CCTTGTACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R3591-ACTACCTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACCTGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R3592-TCTCTGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGCTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R3593-GGTTCTTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTCTTCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R3594-AGCACACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACACAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R3595-TCCTACGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTACGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R3596-AGTGTACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTACCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R3597-ACCTAGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTAGAACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R3598-GAAGACCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R3599-GTCATGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATGTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R3600-CACACTAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACACTAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R3601-AGGTTGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R3602-ACAAGACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R3603-GATGGACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGGACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R3604-ACATGTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGTAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R3605-ACTCCACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCACTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R3606-CAACAACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAACTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R3607-AGACACCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACACCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R3608-CACTGTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGTGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R3609-GGTCTGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCTGTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R3610-AAGTCTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCTCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R3611-CAACTTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTTGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R3612-TACTTGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTTGAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R3613-CACTCATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTCATGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R3614-AGATGTTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGTTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R3615-TAGAAGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R3616-AACACCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACCTACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R3617-GTCGTTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGTTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R3618-TACTCGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCGTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R3619-AAGTTCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTTCATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R3620-CTGTTCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R3621-CAAGTTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTTGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R3622-GTCATGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATGACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R3623-GTAGACTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGACTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R3624-GCAGACTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGACTTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R3625-ATCACACGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACACGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R3626-TCCATGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATGTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R3627-CACAGCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAGCTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R3628-GTTGAGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGAGCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R3629-ATCGTGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTGTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R3630-AGTAGTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R3631-CTGTACAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTACAGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R3632-ACCTCGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCGATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R3633-GTAGCAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCAGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R3634-TGATCAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCAAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R3635-ATCCATCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCATCCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R3636-AGATGCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGCTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R3637-AACGAACGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGAACGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R3638-CTCAACAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAACAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R3639-TCTCTCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCTAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R3640-ATGCTGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTGAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3641-TACGTCTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTCTTGGGTCTCGTGGGCTCGG</t>
+    <t>R3641-ATCCTACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3642-AGTTCTCGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTCGTCGTCTCGTGGGCTCGG</t>
+    <t>R3642-AGAAGTCCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTCCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3643-GGTGTCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R3643-TCGACAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGACAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3644-GAACTGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGGACAGTCTCGTGGGCTCGG</t>
+    <t>R3644-AGTGCTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3645-ATGCTCGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTCGAGTGTCTCGTGGGCTCGG</t>
+    <t>R3645-TACGTACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3646-TCTAGGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R3646-ATCTTGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTTGGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3647-ACTAGAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGAGACCGTCTCGTGGGCTCGG</t>
+    <t>R3647-CGAAGACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3648-AAGCTACGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACGTCGTCTCGTGGGCTCGG</t>
+    <t>R3648-ACGACACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGACACTGTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
